--- a/experiment/jsp/my_ur_result90.xlsx
+++ b/experiment/jsp/my_ur_result90.xlsx
@@ -433,7 +433,7 @@
         <v>0.723936170212766</v>
       </c>
       <c r="F2">
-        <v>0.7317204301075269</v>
+        <v>0.742093784078517</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -453,7 +453,7 @@
         <v>0.7263213530655391</v>
       </c>
       <c r="F3">
-        <v>0.7301806588735389</v>
+        <v>0.7651447661469933</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -473,7 +473,7 @@
         <v>0.7256329113924052</v>
       </c>
       <c r="F4">
-        <v>0.6704678362573099</v>
+        <v>0.6698149951314509</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -493,7 +493,7 @@
         <v>0.6966900702106319</v>
       </c>
       <c r="F5">
-        <v>0.67568093385214</v>
+        <v>0.6743689320388349</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -513,7 +513,7 @@
         <v>0.66779324055666</v>
       </c>
       <c r="F6">
-        <v>0.6349716446124762</v>
+        <v>0.6765357502517623</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -530,10 +530,10 @@
         <v>0.6938656280428434</v>
       </c>
       <c r="E7">
-        <v>0.6616527390900651</v>
+        <v>0.685851780558229</v>
       </c>
       <c r="F7">
-        <v>0.6408273381294964</v>
+        <v>0.692517006802721</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -550,10 +550,10 @@
         <v>0.7022540983606558</v>
       </c>
       <c r="E8">
-        <v>0.7117341640706127</v>
+        <v>0.71619644723093</v>
       </c>
       <c r="F8">
-        <v>0.6411599625818521</v>
+        <v>0.6752709359605912</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -573,7 +573,7 @@
         <v>0.6989194499017681</v>
       </c>
       <c r="F9">
-        <v>0.7216024340770791</v>
+        <v>0.6769743101807802</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -593,7 +593,7 @@
         <v>0.6370837083708371</v>
       </c>
       <c r="F10">
-        <v>0.7244626407369498</v>
+        <v>0.7193089430894308</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -610,10 +610,10 @@
         <v>0.6265049415992813</v>
       </c>
       <c r="E11">
-        <v>0.7196078431372549</v>
+        <v>0.7218426501035196</v>
       </c>
       <c r="F11">
-        <v>0.7196078431372549</v>
+        <v>0.7137154554759468</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -633,7 +633,7 @@
         <v>0.7026694045174537</v>
       </c>
       <c r="F12">
-        <v>0.6273143904674611</v>
+        <v>0.6574447646493756</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -653,7 +653,7 @@
         <v>0.6944552529182879</v>
       </c>
       <c r="F13">
-        <v>0.6555555555555556</v>
+        <v>0.7012770137524559</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -673,7 +673,7 @@
         <v>0.7559139784946236</v>
       </c>
       <c r="F14">
-        <v>0.683852140077821</v>
+        <v>0.6650898770104068</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -693,7 +693,7 @@
         <v>0.7271617497456766</v>
       </c>
       <c r="F15">
-        <v>0.6422282120395327</v>
+        <v>0.7399585921325051</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -713,7 +713,7 @@
         <v>0.7412715517241379</v>
       </c>
       <c r="F16">
-        <v>0.7271670190274842</v>
+        <v>0.736509635974304</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -733,7 +733,7 @@
         <v>0.7088757396449704</v>
       </c>
       <c r="F17">
-        <v>0.7026392961876834</v>
+        <v>0.6813270142180095</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -753,7 +753,7 @@
         <v>0.7493684210526316</v>
       </c>
       <c r="F18">
-        <v>0.7369565217391305</v>
+        <v>0.7316546762589928</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -773,7 +773,7 @@
         <v>0.7369072164948454</v>
       </c>
       <c r="F19">
-        <v>0.6966861598440545</v>
+        <v>0.698046875</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -790,10 +790,10 @@
         <v>0.8195754716981132</v>
       </c>
       <c r="E20">
-        <v>0.7425213675213674</v>
+        <v>0.7354497354497355</v>
       </c>
       <c r="F20">
-        <v>0.7120901639344261</v>
+        <v>0.7338965153115101</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -813,7 +813,7 @@
         <v>0.7464994775339603</v>
       </c>
       <c r="F21">
-        <v>0.7108457711442787</v>
+        <v>0.668288119738073</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -833,7 +833,7 @@
         <v>0.7216566866267464</v>
       </c>
       <c r="F22">
-        <v>0.691300191204589</v>
+        <v>0.7209371884346959</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -850,10 +850,10 @@
         <v>0.7158780231335437</v>
       </c>
       <c r="E23">
-        <v>0.7780571428571429</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="F23">
-        <v>0.719661733615222</v>
+        <v>0.7189017951425554</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -873,7 +873,7 @@
         <v>0.6283500455788513</v>
       </c>
       <c r="F24">
-        <v>0.6238009049773756</v>
+        <v>0.6400185701021355</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -890,10 +890,10 @@
         <v>0.702441505595117</v>
       </c>
       <c r="E25">
+        <v>0.6671497584541063</v>
+      </c>
+      <c r="F25">
         <v>0.7096608427543679</v>
-      </c>
-      <c r="F25">
-        <v>0.7361407249466951</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -913,7 +913,7 @@
         <v>0.6430722891566265</v>
       </c>
       <c r="F26">
-        <v>0.68796992481203</v>
+        <v>0.6366799204771371</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -933,7 +933,7 @@
         <v>0.6225557461406519</v>
       </c>
       <c r="F27">
-        <v>0.6874053030303031</v>
+        <v>0.6854579792256846</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -953,7 +953,7 @@
         <v>0.632484076433121</v>
       </c>
       <c r="F28">
-        <v>0.7293809024134312</v>
+        <v>0.6651674641148326</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -973,7 +973,7 @@
         <v>0.6485500467726848</v>
       </c>
       <c r="F29">
-        <v>0.7344279661016949</v>
+        <v>0.7470905172413794</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -993,7 +993,7 @@
         <v>0.6678678678678679</v>
       </c>
       <c r="F30">
-        <v>0.6773604060913706</v>
+        <v>0.7113006396588486</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1013,7 +1013,7 @@
         <v>0.7274116523400191</v>
       </c>
       <c r="F31">
-        <v>0.7771428571428572</v>
+        <v>0.7654271356783919</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1033,7 +1033,7 @@
         <v>0.7153846153846153</v>
       </c>
       <c r="F32">
-        <v>0.6747058823529412</v>
+        <v>0.6916582914572864</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1053,7 +1053,7 @@
         <v>0.6835820895522389</v>
       </c>
       <c r="F33">
-        <v>0.6829025844930416</v>
+        <v>0.715625</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1073,7 +1073,7 @@
         <v>0.7199608610567514</v>
       </c>
       <c r="F34">
-        <v>0.7027698185291309</v>
+        <v>0.6934967012252592</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1093,7 +1093,7 @@
         <v>0.7513071895424837</v>
       </c>
       <c r="F35">
-        <v>0.7392282958199357</v>
+        <v>0.7267650158061116</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1113,7 +1113,7 @@
         <v>0.6949282296650717</v>
       </c>
       <c r="F36">
-        <v>0.6883412322274881</v>
+        <v>0.6969289827255277</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1133,7 +1133,7 @@
         <v>0.7036697247706422</v>
       </c>
       <c r="F37">
-        <v>0.6304109589041097</v>
+        <v>0.6965691220988901</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1153,7 +1153,7 @@
         <v>0.6560036663611367</v>
       </c>
       <c r="F38">
-        <v>0.5919768403639372</v>
+        <v>0.6075551782682513</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1170,10 +1170,10 @@
         <v>0.6853807106598986</v>
       </c>
       <c r="E39">
-        <v>0.6657790927021696</v>
+        <v>0.5677880571909167</v>
       </c>
       <c r="F39">
-        <v>0.6497593840230992</v>
+        <v>0.6677546983184965</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1193,7 +1193,7 @@
         <v>0.6839650145772594</v>
       </c>
       <c r="F40">
-        <v>0.6571428571428571</v>
+        <v>0.6439158279963404</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1213,7 +1213,7 @@
         <v>0.7164682539682541</v>
       </c>
       <c r="F41">
-        <v>0.6613553113553113</v>
+        <v>0.6865019011406843</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1233,7 +1233,7 @@
         <v>0.7220193340494092</v>
       </c>
       <c r="F42">
-        <v>0.7120762711864408</v>
+        <v>0.7338427947598254</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1253,7 +1253,7 @@
         <v>0.7994239631336406</v>
       </c>
       <c r="F43">
-        <v>0.7160990712074303</v>
+        <v>0.7461290322580646</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1273,7 +1273,7 @@
         <v>0.7387060158910329</v>
       </c>
       <c r="F44">
-        <v>0.7012931034482759</v>
+        <v>0.705092091007584</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1293,7 +1293,7 @@
         <v>0.7141237113402062</v>
       </c>
       <c r="F45">
-        <v>0.7039634146341462</v>
+        <v>0.7756998880179171</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1313,7 +1313,7 @@
         <v>0.7088757396449704</v>
       </c>
       <c r="F46">
-        <v>0.7033268101761253</v>
+        <v>0.6971871968962173</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1333,7 +1333,7 @@
         <v>0.7081999999999999</v>
       </c>
       <c r="F47">
-        <v>0.6283939662821652</v>
+        <v>0.6503213957759413</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1353,7 +1353,7 @@
         <v>0.6436669619131975</v>
       </c>
       <c r="F48">
-        <v>0.6967401725790988</v>
+        <v>0.7195049504950495</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1373,7 +1373,7 @@
         <v>0.6814702920443102</v>
       </c>
       <c r="F49">
-        <v>0.7034303534303535</v>
+        <v>0.662133072407045</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1393,7 +1393,7 @@
         <v>0.6667920978363123</v>
       </c>
       <c r="F50">
-        <v>0.6983251231527093</v>
+        <v>0.7130784708249498</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1413,7 +1413,7 @@
         <v>0.6812674743709227</v>
       </c>
       <c r="F51">
-        <v>0.6774791473586654</v>
+        <v>0.6743542435424354</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1430,10 +1430,10 @@
         <v>0.7076142131979696</v>
       </c>
       <c r="E52">
-        <v>0.7454545454545455</v>
+        <v>0.7252861602497398</v>
       </c>
       <c r="F52">
-        <v>0.7761692650334076</v>
+        <v>0.7684674751929438</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1453,7 +1453,7 @@
         <v>0.7198473282442748</v>
       </c>
       <c r="F53">
-        <v>0.7059893048128342</v>
+        <v>0.6721995926680245</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1473,7 +1473,7 @@
         <v>0.7385360602798708</v>
       </c>
       <c r="F54">
-        <v>0.641214953271028</v>
+        <v>0.6265753424657535</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1493,7 +1493,7 @@
         <v>0.7339055793991416</v>
       </c>
       <c r="F55">
-        <v>0.6840000000000001</v>
+        <v>0.7633928571428571</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1513,7 +1513,7 @@
         <v>0.7645195353748681</v>
       </c>
       <c r="F56">
-        <v>0.7471620227038185</v>
+        <v>0.8264840182648403</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1533,7 +1533,7 @@
         <v>0.7254526091586795</v>
       </c>
       <c r="F57">
-        <v>0.665234375</v>
+        <v>0.6626459143968872</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1553,7 +1553,7 @@
         <v>0.7957013574660634</v>
       </c>
       <c r="F58">
-        <v>0.7327083333333333</v>
+        <v>0.7342379958246346</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1573,7 +1573,7 @@
         <v>0.6986027944111777</v>
       </c>
       <c r="F59">
-        <v>0.7223942208462333</v>
+        <v>0.6427915518824611</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1593,7 +1593,7 @@
         <v>0.6625</v>
       </c>
       <c r="F60">
-        <v>0.6806862745098039</v>
+        <v>0.6922233300099701</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1613,7 +1613,7 @@
         <v>0.6932254802831144</v>
       </c>
       <c r="F61">
-        <v>0.6643410852713179</v>
+        <v>0.6701857282502444</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1633,7 +1633,7 @@
         <v>0.7021934197407776</v>
       </c>
       <c r="F62">
-        <v>0.7245884773662552</v>
+        <v>0.7208802456499488</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1653,7 +1653,7 @@
         <v>0.7037213740458015</v>
       </c>
       <c r="F63">
-        <v>0.6854089219330854</v>
+        <v>0.695754716981132</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1673,7 +1673,7 @@
         <v>0.6504347826086956</v>
       </c>
       <c r="F64">
-        <v>0.6714542190305206</v>
+        <v>0.7096774193548387</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1693,7 +1693,7 @@
         <v>0.7599777034559644</v>
       </c>
       <c r="F65">
-        <v>0.6837512537612839</v>
+        <v>0.7190928270042194</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1713,7 +1713,7 @@
         <v>0.7241482965931862</v>
       </c>
       <c r="F66">
-        <v>0.6564032697547684</v>
+        <v>0.6837275307473984</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1733,7 +1733,7 @@
         <v>0.7815368196371397</v>
       </c>
       <c r="F67">
-        <v>0.7109708737864078</v>
+        <v>0.7021093000958772</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1753,7 +1753,7 @@
         <v>0.6893371757925072</v>
       </c>
       <c r="F68">
-        <v>0.7212060301507538</v>
+        <v>0.7367556468172485</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1770,10 +1770,10 @@
         <v>0.7608066184074458</v>
       </c>
       <c r="E69">
-        <v>0.6850093109869646</v>
+        <v>0.7177560975609756</v>
       </c>
       <c r="F69">
-        <v>0.709450337512054</v>
+        <v>0.6574620196604111</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1793,7 +1793,7 @@
         <v>0.697410358565737</v>
       </c>
       <c r="F70">
-        <v>0.7123092573753815</v>
+        <v>0.6798058252427184</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1813,7 +1813,7 @@
         <v>0.6920997920997921</v>
       </c>
       <c r="F71">
-        <v>0.6942648592283629</v>
+        <v>0.7565909090909091</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1833,7 +1833,7 @@
         <v>0.6846449136276391</v>
       </c>
       <c r="F72">
-        <v>0.6661064425770308</v>
+        <v>0.6550964187327825</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1853,7 +1853,7 @@
         <v>0.6609802073515552</v>
       </c>
       <c r="F73">
-        <v>0.7027054108216433</v>
+        <v>0.7672866520787747</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1873,7 +1873,7 @@
         <v>0.6620404411764705</v>
       </c>
       <c r="F74">
-        <v>0.6506775067750677</v>
+        <v>0.7320121951219513</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1893,7 +1893,7 @@
         <v>0.7013618677042802</v>
       </c>
       <c r="F75">
-        <v>0.6489648964896488</v>
+        <v>0.6821192052980132</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1913,7 +1913,7 @@
         <v>0.6883743842364531</v>
       </c>
       <c r="F76">
-        <v>0.6890532544378699</v>
+        <v>0.7362486828240253</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1933,7 +1933,7 @@
         <v>0.7522774327122154</v>
       </c>
       <c r="F77">
-        <v>0.7041666666666666</v>
+        <v>0.6766294227188082</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1953,7 +1953,7 @@
         <v>0.7688397790055248</v>
       </c>
       <c r="F78">
-        <v>0.70927624872579</v>
+        <v>0.7505933117583603</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1973,7 +1973,7 @@
         <v>0.6753221010901882</v>
       </c>
       <c r="F79">
-        <v>0.6713300492610837</v>
+        <v>0.6903748733535967</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1993,7 +1993,7 @@
         <v>0.7394655704008223</v>
       </c>
       <c r="F80">
-        <v>0.6558796718322697</v>
+        <v>0.6372896368467671</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2013,7 +2013,7 @@
         <v>0.6570289132602194</v>
       </c>
       <c r="F81">
-        <v>0.6878914405010438</v>
+        <v>0.7070815450643777</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2033,7 +2033,7 @@
         <v>0.7693363844393593</v>
       </c>
       <c r="F82">
-        <v>0.6953464322647364</v>
+        <v>0.7160809371671991</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2053,7 +2053,7 @@
         <v>0.7334773218142547</v>
       </c>
       <c r="F83">
-        <v>0.6568665377176015</v>
+        <v>0.7009287925696595</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2073,7 +2073,7 @@
         <v>0.7232931726907632</v>
       </c>
       <c r="F84">
-        <v>0.7076620825147348</v>
+        <v>0.7488565488565488</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2093,7 +2093,7 @@
         <v>0.699304865938431</v>
       </c>
       <c r="F85">
-        <v>0.5967796610169491</v>
+        <v>0.6413479052823315</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2113,7 +2113,7 @@
         <v>0.7067961165048544</v>
       </c>
       <c r="F86">
-        <v>0.6287907869481766</v>
+        <v>0.6181132075471698</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2133,7 +2133,7 @@
         <v>0.6822645290581162</v>
       </c>
       <c r="F87">
-        <v>0.6509560229445508</v>
+        <v>0.6815815815815817</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2153,7 +2153,7 @@
         <v>0.7101178781925344</v>
       </c>
       <c r="F88">
-        <v>0.6431494661921708</v>
+        <v>0.7178748758689176</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2173,7 +2173,7 @@
         <v>0.6870018975332068</v>
       </c>
       <c r="F89">
-        <v>0.6402298850574712</v>
+        <v>0.6929186602870814</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2193,7 +2193,7 @@
         <v>0.6542260208926877</v>
       </c>
       <c r="F90">
-        <v>0.6579751671442216</v>
+        <v>0.6793885601577909</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2213,7 +2213,7 @@
         <v>0.7397170837867247</v>
       </c>
       <c r="F91">
-        <v>0.7001029866117405</v>
+        <v>0.7932322053675612</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2233,7 +2233,7 @@
         <v>0.6280442804428045</v>
       </c>
       <c r="F92">
-        <v>0.6446969696969698</v>
+        <v>0.6821643286573147</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2253,7 +2253,7 @@
         <v>0.7447110141766631</v>
       </c>
       <c r="F93">
-        <v>0.6734714003944774</v>
+        <v>0.7158280922431866</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2273,7 +2273,7 @@
         <v>0.6792452830188678</v>
       </c>
       <c r="F94">
-        <v>0.6986721144024515</v>
+        <v>0.7073422957600827</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2293,7 +2293,7 @@
         <v>0.6363796133567663</v>
       </c>
       <c r="F95">
-        <v>0.6997101449275362</v>
+        <v>0.7615141955835962</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2313,7 +2313,7 @@
         <v>0.683088954056696</v>
       </c>
       <c r="F96">
-        <v>0.6312556458897922</v>
+        <v>0.666793893129771</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2333,7 +2333,7 @@
         <v>0.7194652406417111</v>
       </c>
       <c r="F97">
-        <v>0.7679223744292237</v>
+        <v>0.749109131403118</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2353,7 +2353,7 @@
         <v>0.7169199594731509</v>
       </c>
       <c r="F98">
-        <v>0.6576208178438662</v>
+        <v>0.5936241610738254</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2393,7 +2393,7 @@
         <v>0.7136409227683049</v>
       </c>
       <c r="F100">
-        <v>0.6375448028673836</v>
+        <v>0.6744075829383887</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2413,7 +2413,7 @@
         <v>0.7457831325301204</v>
       </c>
       <c r="F101">
-        <v>0.6940876656472985</v>
+        <v>0.6962167689161555</v>
       </c>
     </row>
   </sheetData>
@@ -2466,7 +2466,7 @@
         <v>0.08282616909532696</v>
       </c>
       <c r="F2">
-        <v>0.08371677306409392</v>
+        <v>0.08490359754591859</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2486,7 +2486,7 @@
         <v>0.06653315920078362</v>
       </c>
       <c r="F3">
-        <v>0.06688668289473038</v>
+        <v>0.0700894973317832</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2506,7 +2506,7 @@
         <v>0.1265501453588888</v>
       </c>
       <c r="F4">
-        <v>0.1169293740742949</v>
+        <v>0.1168155187928204</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2526,7 +2526,7 @@
         <v>0.07965457933089733</v>
       </c>
       <c r="F5">
-        <v>0.07725254435107456</v>
+        <v>0.07710253941058703</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2546,7 +2546,7 @@
         <v>0.09064036695751668</v>
       </c>
       <c r="F6">
-        <v>0.08618545289155177</v>
+        <v>0.09182699814628578</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2563,10 +2563,10 @@
         <v>0.07050788829645356</v>
       </c>
       <c r="E7">
-        <v>0.06723454157888377</v>
+        <v>0.06969355272421349</v>
       </c>
       <c r="F7">
-        <v>0.06511834647523185</v>
+        <v>0.07037084672542061</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2583,10 +2583,10 @@
         <v>0.08086892266200141</v>
       </c>
       <c r="E8">
-        <v>0.08196061112992044</v>
+        <v>0.08247447076082902</v>
       </c>
       <c r="F8">
-        <v>0.07383355333780482</v>
+        <v>0.07776164386021023</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2606,7 +2606,7 @@
         <v>0.05019684812174226</v>
       </c>
       <c r="F9">
-        <v>0.05182595475449656</v>
+        <v>0.04862073395616898</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2626,7 +2626,7 @@
         <v>0.0754099255702347</v>
       </c>
       <c r="F10">
-        <v>0.08575274033626483</v>
+        <v>0.08514271067940113</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2643,10 +2643,10 @@
         <v>0.04800913306434597</v>
       </c>
       <c r="E11">
-        <v>0.05514361723489889</v>
+        <v>0.0553148707045725</v>
       </c>
       <c r="F11">
-        <v>0.05514361723489889</v>
+        <v>0.05469208300984345</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2666,7 +2666,7 @@
         <v>0.08164535463142858</v>
       </c>
       <c r="F12">
-        <v>0.07288961999176118</v>
+        <v>0.07639056235447785</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0.05991057103697233</v>
       </c>
       <c r="F13">
-        <v>0.05655469883012632</v>
+        <v>0.06049908352260075</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2706,7 +2706,7 @@
         <v>0.07332671114425635</v>
       </c>
       <c r="F14">
-        <v>0.06633642156046535</v>
+        <v>0.06451640621017822</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2726,7 +2726,7 @@
         <v>0.06883375337571927</v>
       </c>
       <c r="F15">
-        <v>0.06079387202904945</v>
+        <v>0.07004511342477436</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2746,7 +2746,7 @@
         <v>0.07828120531379482</v>
       </c>
       <c r="F16">
-        <v>0.07679171092093195</v>
+        <v>0.07777832819186466</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2766,7 +2766,7 @@
         <v>0.07871750145788034</v>
       </c>
       <c r="F17">
-        <v>0.07802497211954119</v>
+        <v>0.07565833789411436</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>0.06169256275410331</v>
       </c>
       <c r="F18">
-        <v>0.0606707397685281</v>
+        <v>0.06023425962630847</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2806,7 +2806,7 @@
         <v>0.07952697865330374</v>
       </c>
       <c r="F19">
-        <v>0.07518632484766534</v>
+        <v>0.07533317313838345</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2823,10 +2823,10 @@
         <v>0.06847141280609385</v>
       </c>
       <c r="E20">
-        <v>0.06203392955082006</v>
+        <v>0.06144313022176466</v>
       </c>
       <c r="F20">
-        <v>0.05949155538890123</v>
+        <v>0.0613133664831759</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2846,7 +2846,7 @@
         <v>0.07887569283990449</v>
       </c>
       <c r="F21">
-        <v>0.07510849556993893</v>
+        <v>0.07061182230850199</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0.08522445725675644</v>
       </c>
       <c r="F22">
-        <v>0.08163948964748562</v>
+        <v>0.0851394877081455</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2883,10 +2883,10 @@
         <v>0.04789415143241466</v>
       </c>
       <c r="E23">
-        <v>0.05205410058540155</v>
+        <v>0.05129204731106571</v>
       </c>
       <c r="F23">
-        <v>0.04814729176768114</v>
+        <v>0.04809644985451569</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2906,7 +2906,7 @@
         <v>0.08329544760172321</v>
       </c>
       <c r="F24">
-        <v>0.08269240363718583</v>
+        <v>0.08484225257111451</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2923,10 +2923,10 @@
         <v>0.1012779913514351</v>
       </c>
       <c r="E25">
+        <v>0.09618962850092821</v>
+      </c>
+      <c r="F25">
         <v>0.1023188751268867</v>
-      </c>
-      <c r="F25">
-        <v>0.1061367436017705</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0.08333000670768566</v>
       </c>
       <c r="F26">
-        <v>0.08914789117170238</v>
+        <v>0.08250167662112814</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2966,7 +2966,7 @@
         <v>0.07107335083752475</v>
       </c>
       <c r="F27">
-        <v>0.07847682488310025</v>
+        <v>0.07825451093159004</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2986,7 +2986,7 @@
         <v>0.06161355108179286</v>
       </c>
       <c r="F28">
-        <v>0.0710527729684054</v>
+        <v>0.06479740922381849</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3006,7 +3006,7 @@
         <v>0.07158763771034816</v>
       </c>
       <c r="F29">
-        <v>0.08106693295801079</v>
+        <v>0.08246463869866612</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>0.05968820487265501</v>
       </c>
       <c r="F30">
-        <v>0.06053656514495671</v>
+        <v>0.06356984719379784</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3046,7 +3046,7 @@
         <v>0.04117442950810169</v>
       </c>
       <c r="F31">
-        <v>0.04398941601528823</v>
+        <v>0.04332625898993215</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3066,7 +3066,7 @@
         <v>0.07009629215133591</v>
       </c>
       <c r="F32">
-        <v>0.0661104245584168</v>
+        <v>0.0677714905020956</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3086,7 +3086,7 @@
         <v>0.08791989351422454</v>
       </c>
       <c r="F33">
-        <v>0.08783249799383269</v>
+        <v>0.09204113852270382</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>0.06731556902100476</v>
       </c>
       <c r="F34">
-        <v>0.06570822496606195</v>
+        <v>0.0648411984349358</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3126,7 +3126,7 @@
         <v>0.05431580534816152</v>
       </c>
       <c r="F35">
-        <v>0.05344256088918786</v>
+        <v>0.05254152719664097</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3146,7 +3146,7 @@
         <v>0.0677384898743854</v>
       </c>
       <c r="F36">
-        <v>0.06709641888031541</v>
+        <v>0.0679335143174019</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3166,7 +3166,7 @@
         <v>0.09893758033068546</v>
       </c>
       <c r="F37">
-        <v>0.08863722950173743</v>
+        <v>0.09793921927790358</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3186,7 +3186,7 @@
         <v>0.09726318667667656</v>
       </c>
       <c r="F38">
-        <v>0.08777017093817545</v>
+        <v>0.09007991227865374</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3203,10 +3203,10 @@
         <v>0.09267033771204412</v>
       </c>
       <c r="E39">
-        <v>0.09002000260982589</v>
+        <v>0.07677063300787507</v>
       </c>
       <c r="F39">
-        <v>0.08785397752296771</v>
+        <v>0.09028712427929123</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -3226,7 +3226,7 @@
         <v>0.04716028192629611</v>
       </c>
       <c r="F40">
-        <v>0.04531085910565705</v>
+        <v>0.04439883815385059</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -3246,7 +3246,7 @@
         <v>0.05199737805181178</v>
       </c>
       <c r="F41">
-        <v>0.04799757974013397</v>
+        <v>0.04982258277207822</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>0.07740598355121389</v>
       </c>
       <c r="F42">
-        <v>0.07634001132010607</v>
+        <v>0.07867354878403943</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -3286,7 +3286,7 @@
         <v>0.05081010885820116</v>
       </c>
       <c r="F43">
-        <v>0.04551411195966831</v>
+        <v>0.0474227682676544</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -3306,7 +3306,7 @@
         <v>0.09329698868064719</v>
       </c>
       <c r="F44">
-        <v>0.08857181791772646</v>
+        <v>0.08905162191511395</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3326,7 +3326,7 @@
         <v>0.0586706637510868</v>
       </c>
       <c r="F45">
-        <v>0.05783591853511606</v>
+        <v>0.06372961236120291</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3346,7 +3346,7 @@
         <v>0.07739927452838759</v>
       </c>
       <c r="F46">
-        <v>0.07679340936573875</v>
+        <v>0.07612304982714355</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>0.03362082687858821</v>
       </c>
       <c r="F47">
-        <v>0.02983214452403567</v>
+        <v>0.03087311926408467</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3386,7 +3386,7 @@
         <v>0.08575134976376018</v>
       </c>
       <c r="F48">
-        <v>0.09282193085645757</v>
+        <v>0.09585472661711411</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3406,7 +3406,7 @@
         <v>0.04581366212420712</v>
       </c>
       <c r="F49">
-        <v>0.04728998595565247</v>
+        <v>0.04451366584083918</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3426,7 +3426,7 @@
         <v>0.09860918407077129</v>
       </c>
       <c r="F50">
-        <v>0.1032724755342166</v>
+        <v>0.1054542883976156</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3446,7 +3446,7 @@
         <v>0.06012881126041332</v>
       </c>
       <c r="F51">
-        <v>0.05979445271772335</v>
+        <v>0.05951864804651612</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3463,10 +3463,10 @@
         <v>0.07578800900708609</v>
       </c>
       <c r="E52">
-        <v>0.07984084371334738</v>
+        <v>0.07768073763993737</v>
       </c>
       <c r="F52">
-        <v>0.08313049985743853</v>
+        <v>0.08230561066370429</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -3486,7 +3486,7 @@
         <v>0.09489144863333689</v>
       </c>
       <c r="F53">
-        <v>0.0930646613869197</v>
+        <v>0.08861044643255593</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3506,7 +3506,7 @@
         <v>0.06035757332420159</v>
       </c>
       <c r="F54">
-        <v>0.05240391179269464</v>
+        <v>0.05120747545039569</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3526,7 +3526,7 @@
         <v>0.08240455113691256</v>
       </c>
       <c r="F55">
-        <v>0.07680104165960251</v>
+        <v>0.08571544828080638</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3546,7 +3546,7 @@
         <v>0.04532789533982283</v>
       </c>
       <c r="F56">
-        <v>0.04429877903695791</v>
+        <v>0.04900173160594999</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>0.05252717458930353</v>
       </c>
       <c r="F57">
-        <v>0.04816700872983985</v>
+        <v>0.04797958846240856</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3586,7 +3586,7 @@
         <v>0.0726913606004158</v>
       </c>
       <c r="F58">
-        <v>0.06693662788621622</v>
+        <v>0.06707637032439202</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3606,7 +3606,7 @@
         <v>0.06584406499190182</v>
       </c>
       <c r="F59">
-        <v>0.0680864325303257</v>
+        <v>0.06058379533690139</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3626,7 +3626,7 @@
         <v>0.07055399260992155</v>
       </c>
       <c r="F60">
-        <v>0.07249076887764486</v>
+        <v>0.073719425977266</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3646,7 +3646,7 @@
         <v>0.07405972506911379</v>
       </c>
       <c r="F61">
-        <v>0.07097390319123408</v>
+        <v>0.07159830703162616</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3666,7 +3666,7 @@
         <v>0.07035952437173713</v>
       </c>
       <c r="F62">
-        <v>0.07260350097207031</v>
+        <v>0.07223193750752541</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3686,7 +3686,7 @@
         <v>0.06406822808817465</v>
       </c>
       <c r="F63">
-        <v>0.06240102512677233</v>
+        <v>0.06334292739283683</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3706,7 +3706,7 @@
         <v>0.05313747907475156</v>
       </c>
       <c r="F64">
-        <v>0.05485466870373815</v>
+        <v>0.05797732536619003</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3726,7 +3726,7 @@
         <v>0.06820164405335534</v>
       </c>
       <c r="F65">
-        <v>0.06136095758862563</v>
+        <v>0.06453256826567484</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3746,7 +3746,7 @@
         <v>0.05358061258188845</v>
       </c>
       <c r="F66">
-        <v>0.04856807571001335</v>
+        <v>0.05058983099027878</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3766,7 +3766,7 @@
         <v>0.1019654923193615</v>
       </c>
       <c r="F67">
-        <v>0.09275889932353568</v>
+        <v>0.09160274813350119</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3786,7 +3786,7 @@
         <v>0.06508574626183708</v>
       </c>
       <c r="F68">
-        <v>0.06809473553625367</v>
+        <v>0.06956289718539262</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3803,10 +3803,10 @@
         <v>0.09681989291463834</v>
       </c>
       <c r="E69">
-        <v>0.08717396317360826</v>
+        <v>0.09134130385215147</v>
       </c>
       <c r="F69">
-        <v>0.09028431672946509</v>
+        <v>0.08366830781810122</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3826,7 +3826,7 @@
         <v>0.1017524732692803</v>
       </c>
       <c r="F70">
-        <v>0.1039262290563148</v>
+        <v>0.09918396423529853</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3846,7 +3846,7 @@
         <v>0.08700046180879238</v>
       </c>
       <c r="F71">
-        <v>0.08727262175188558</v>
+        <v>0.0951073230227935</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3866,7 +3866,7 @@
         <v>0.08837015628726157</v>
       </c>
       <c r="F72">
-        <v>0.08597731358667278</v>
+        <v>0.08455620096540546</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3886,7 +3886,7 @@
         <v>0.07078855560275753</v>
       </c>
       <c r="F73">
-        <v>0.07525717183820214</v>
+        <v>0.08217358588022511</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3906,7 +3906,7 @@
         <v>0.05739159295706693</v>
       </c>
       <c r="F74">
-        <v>0.05640655206620489</v>
+        <v>0.0634573710744805</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3926,7 +3926,7 @@
         <v>0.06122998047414869</v>
       </c>
       <c r="F75">
-        <v>0.05665564349903229</v>
+        <v>0.05955006615650413</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3946,7 +3946,7 @@
         <v>0.08174140272594385</v>
       </c>
       <c r="F76">
-        <v>0.08182201554914499</v>
+        <v>0.08742626318949739</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0.06293118945667851</v>
       </c>
       <c r="F77">
-        <v>0.05890652036351884</v>
+        <v>0.0566029134219287</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3986,7 +3986,7 @@
         <v>0.0536151908302954</v>
       </c>
       <c r="F78">
-        <v>0.04946151651520626</v>
+        <v>0.05234276990444158</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -4006,7 +4006,7 @@
         <v>0.09104376521398899</v>
       </c>
       <c r="F79">
-        <v>0.09050557546888166</v>
+        <v>0.09307310952473644</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -4026,7 +4026,7 @@
         <v>0.09730592711177784</v>
       </c>
       <c r="F80">
-        <v>0.08630689797608006</v>
+        <v>0.08386064400333024</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -4046,7 +4046,7 @@
         <v>0.05469209928884384</v>
       </c>
       <c r="F81">
-        <v>0.05726114361869561</v>
+        <v>0.05885855749647034</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -4066,7 +4066,7 @@
         <v>0.05647864281282442</v>
       </c>
       <c r="F82">
-        <v>0.05104688088770273</v>
+        <v>0.05256904560000909</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -4086,7 +4086,7 @@
         <v>0.0670622002399628</v>
       </c>
       <c r="F83">
-        <v>0.06005763773907694</v>
+        <v>0.06408627184954133</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -4106,7 +4106,7 @@
         <v>0.03850031791354302</v>
       </c>
       <c r="F84">
-        <v>0.03766828746747429</v>
+        <v>0.03986103601027947</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -4126,7 +4126,7 @@
         <v>0.06795355860875454</v>
       </c>
       <c r="F85">
-        <v>0.05799087586357273</v>
+        <v>0.06232170630147161</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -4146,7 +4146,7 @@
         <v>0.07171658636393025</v>
       </c>
       <c r="F86">
-        <v>0.06380160802242163</v>
+        <v>0.06271818448996538</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -4166,7 +4166,7 @@
         <v>0.05601811819533319</v>
       </c>
       <c r="F87">
-        <v>0.0534474970926793</v>
+        <v>0.05596204400294547</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -4186,7 +4186,7 @@
         <v>0.07516943060617091</v>
       </c>
       <c r="F88">
-        <v>0.06808049853832918</v>
+        <v>0.07599054653136246</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -4206,7 +4206,7 @@
         <v>0.06471457647746262</v>
       </c>
       <c r="F89">
-        <v>0.06030872113814821</v>
+        <v>0.06527192689688577</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -4226,7 +4226,7 @@
         <v>0.04902428545313992</v>
       </c>
       <c r="F90">
-        <v>0.04930522691705479</v>
+        <v>0.05090983489364529</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -4246,7 +4246,7 @@
         <v>0.07652304201575211</v>
       </c>
       <c r="F91">
-        <v>0.07242500063076844</v>
+        <v>0.08205913140312272</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -4266,7 +4266,7 @@
         <v>0.08010737813521869</v>
       </c>
       <c r="F92">
-        <v>0.08223143740395557</v>
+        <v>0.08701041873604917</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -4286,7 +4286,7 @@
         <v>0.06254724016790772</v>
       </c>
       <c r="F93">
-        <v>0.05656392429385737</v>
+        <v>0.06012140380919431</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0.0821005644187571</v>
       </c>
       <c r="F94">
-        <v>0.08444869087812912</v>
+        <v>0.0854966580865444</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -4326,7 +4326,7 @@
         <v>0.07941038773346965</v>
       </c>
       <c r="F95">
-        <v>0.08731306400066516</v>
+        <v>0.09502525892816871</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -4346,7 +4346,7 @@
         <v>0.08295636595039148</v>
       </c>
       <c r="F96">
-        <v>0.07666157395415581</v>
+        <v>0.08097744500691839</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -4366,7 +4366,7 @@
         <v>0.04906993365451703</v>
       </c>
       <c r="F97">
-        <v>0.05237487210841716</v>
+        <v>0.05109174606567198</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -4386,7 +4386,7 @@
         <v>0.05704468922222199</v>
       </c>
       <c r="F98">
-        <v>0.05232630879398986</v>
+        <v>0.04723415122678949</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -4426,7 +4426,7 @@
         <v>0.05657584422225993</v>
       </c>
       <c r="F100">
-        <v>0.05054311531325551</v>
+        <v>0.05346551344985134</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -4446,7 +4446,7 @@
         <v>0.09426046526520947</v>
       </c>
       <c r="F101">
-        <v>0.08772661038444063</v>
+        <v>0.08799571041629474</v>
       </c>
     </row>
   </sheetData>
